--- a/InOut.xlsx
+++ b/InOut.xlsx
@@ -363,7 +363,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -387,7 +387,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>90000</v>
+        <v>110000</v>
       </c>
     </row>
   </sheetData>

--- a/InOut.xlsx
+++ b/InOut.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -362,7 +363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -395,4 +396,29 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>43948</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/InOut.xlsx
+++ b/InOut.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,42 @@
   </si>
   <si>
     <t>save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公积金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>押金（之前租房押金）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -361,15 +397,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -380,7 +420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43929</v>
       </c>
@@ -389,6 +429,72 @@
       </c>
       <c r="C2">
         <v>110000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>38000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>58000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>10000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>11000</v>
       </c>
     </row>
   </sheetData>
@@ -400,10 +506,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -416,6 +522,11 @@
         <v>43948</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>43981</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InOut.xlsx
+++ b/InOut.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -497,6 +497,14 @@
         <v>11000</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>44013</v>
+      </c>
+      <c r="C9">
+        <v>1100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -508,7 +516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/InOut.xlsx
+++ b/InOut.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,22 @@
   </si>
   <si>
     <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借养老</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="K17" activeCellId="1" sqref="G14 K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -501,8 +517,36 @@
       <c r="A9" s="1">
         <v>44013</v>
       </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
       <c r="C9">
-        <v>1100</v>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>44027</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>1300</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>44042</v>
+      </c>
+      <c r="C11">
+        <v>45000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/InOut.xlsx
+++ b/InOut.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,26 @@
   </si>
   <si>
     <t>借养老</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆迁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还老娘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,9 +150,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -413,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" activeCellId="1" sqref="G14 K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -542,11 +564,44 @@
       <c r="A11" s="1">
         <v>44042</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C11">
         <v>45000</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>128000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>28000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>180300</v>
       </c>
     </row>
   </sheetData>
@@ -560,7 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/InOut.xlsx
+++ b/InOut.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,26 @@
   </si>
   <si>
     <t>还老娘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-12 保</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,15 +455,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -602,6 +622,50 @@
       </c>
       <c r="C14" s="3">
         <v>180300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>1300</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -615,7 +679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/InOut.xlsx
+++ b/InOut.xlsx
@@ -1,164 +1,433 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
+  <workbookProtection workbookPassword="B546" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>save</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公积金</t>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>合同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公积金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>押金（之前租房押金）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>save</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>健身房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>借养老</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>拆迁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>还老娘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>11-12 保</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -166,9 +435,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -176,17 +687,61 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -235,7 +790,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -270,7 +825,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -444,30 +999,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D28" sqref="B28:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +1028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>43929</v>
       </c>
@@ -489,7 +1039,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -497,126 +1047,126 @@
         <v>38000</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>58000</v>
       </c>
       <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
       <c r="C5">
         <v>10000</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>43949</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>90000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>43952</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>12000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>43983</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>11000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>44013</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>11000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>44027</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>1300</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>44042</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>45000</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>128000</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>28000</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
       <c r="B14" t="s">
         <v>3</v>
       </c>
@@ -624,83 +1174,128 @@
         <v>180300</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>44073</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>44104</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>10000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>44134</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>1300</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>44226</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>10000</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1">
         <v>43948</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" s="1">
         <v>43981</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>